--- a/map/4.4.xlsx
+++ b/map/4.4.xlsx
@@ -121,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -134,7 +134,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +417,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,8 +535,8 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="5"/>
@@ -549,7 +548,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -574,16 +573,16 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="3"/>
@@ -601,16 +600,16 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
@@ -626,16 +625,16 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -725,7 +724,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="3"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -737,8 +736,8 @@
       <c r="O11" s="5"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
     </row>
@@ -750,7 +749,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="3"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -760,10 +759,10 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
     </row>
@@ -771,11 +770,11 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="3"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -800,7 +799,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -823,8 +822,8 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -839,8 +838,8 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -851,7 +850,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -862,10 +861,10 @@
       <c r="O16" s="5"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -876,7 +875,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
